--- a/database_progetto/COMMUNICATION TABLE.xlsx
+++ b/database_progetto/COMMUNICATION TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DorjanKurti\Desktop\Progetto 2021-22\PROGETTO-corso-IFTS-DEV\database_progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20A06056-04F0-4EEA-891C-5F9202EEB58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1F8B7-114E-4FBA-B70E-3362BB64E9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{793C513F-2FF9-44B4-B688-C45A828BB84C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Communication</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Primaria</t>
   </si>
   <si>
-    <t>data di aggiunta</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -69,25 +66,37 @@
     <t>DATETIME</t>
   </si>
   <si>
-    <t xml:space="preserve">data di inizio </t>
-  </si>
-  <si>
-    <t>data di fine</t>
-  </si>
-  <si>
     <t xml:space="preserve"> #</t>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>testodicomunicazione</t>
-  </si>
-  <si>
     <t>VARCHAR (250)</t>
   </si>
   <si>
     <t>Extra</t>
+  </si>
+  <si>
+    <t>course_id_course</t>
+  </si>
+  <si>
+    <t>date_of_finish</t>
+  </si>
+  <si>
+    <t>date_of_start</t>
+  </si>
+  <si>
+    <t>date_of_addition</t>
+  </si>
+  <si>
+    <t>text_of_communication</t>
+  </si>
+  <si>
+    <t>Esterna</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -439,15 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C20E2D4-3C0B-45BC-A909-6BF71F6C7AC8}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.21875" bestFit="1" customWidth="1"/>
@@ -458,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -467,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -475,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -489,70 +498,87 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/database_progetto/COMMUNICATION TABLE.xlsx
+++ b/database_progetto/COMMUNICATION TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DorjanKurti\Desktop\Progetto 2021-22\PROGETTO-corso-IFTS-DEV\database_progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1F8B7-114E-4FBA-B70E-3362BB64E9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFF1610-B2D1-46DD-A0EF-261A4FDD1015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{793C513F-2FF9-44B4-B688-C45A828BB84C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Communication</t>
   </si>
@@ -72,31 +72,25 @@
     <t>#</t>
   </si>
   <si>
-    <t>VARCHAR (250)</t>
-  </si>
-  <si>
     <t>Extra</t>
   </si>
   <si>
     <t>course_id_course</t>
   </si>
   <si>
-    <t>date_of_finish</t>
-  </si>
-  <si>
-    <t>date_of_start</t>
-  </si>
-  <si>
-    <t>date_of_addition</t>
-  </si>
-  <si>
     <t>text_of_communication</t>
   </si>
   <si>
     <t>Esterna</t>
   </si>
   <si>
-    <t>null</t>
+    <t>VARCHAR (1000)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>CAMBIARE LA SCHERMATA/ACTIVITY (ANDROID) DA REGISTRO A PRESENZE</t>
   </si>
 </sst>
 </file>
@@ -132,8 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -448,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C20E2D4-3C0B-45BC-A909-6BF71F6C7AC8}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -515,10 +512,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -532,13 +529,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -547,41 +544,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:E8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
